--- a/reports/Group/tmp estimado vs tmp real.xlsx
+++ b/reports/Group/tmp estimado vs tmp real.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldrak\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DP2\Documents\Workspace-24\Projects\Acme-SF-D01\reports\Group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C35DFAC-057E-408A-8F68-AB87B3B729CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB1CEF2-4747-4944-BDF9-A44D6E17DDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08F9934D-43B2-436E-8607-F2E43C784395}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{08F9934D-43B2-436E-8607-F2E43C784395}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja de Jimmy" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
   <si>
     <t>Rol</t>
   </si>
@@ -61,6 +62,36 @@
   <si>
     <t>Tiempo real D01</t>
   </si>
+  <si>
+    <t>Estimado (min)</t>
+  </si>
+  <si>
+    <t>Real (min)</t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>Recuento</t>
+  </si>
+  <si>
+    <t>D01</t>
+  </si>
+  <si>
+    <t>D02</t>
+  </si>
+  <si>
+    <t>D03</t>
+  </si>
+  <si>
+    <t>D04</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
 </sst>
 </file>
 
@@ -69,7 +100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,8 +123,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,8 +173,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -160,12 +209,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -184,11 +365,20 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -202,18 +392,23 @@
     <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -230,6 +425,1956 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Tiempo de tareas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$O$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimado (min)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$P$3:$T$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>D01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>D04</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$P$4:$T$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB2E-4563-8C62-DDEBF6DFEFEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$O$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real (min)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$P$3:$T$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>D01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>D04</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$P$5:$T$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AB2E-4563-8C62-DDEBF6DFEFEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1845646639"/>
+        <c:axId val="2008140767"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1845646639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2008140767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2008140767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1845646639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Tiempo de tareas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$O$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimado (min)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$P$3:$T$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>D01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>D04</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$P$4:$T$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE8F-426A-8159-73779378885F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$O$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real (min)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$P$3:$T$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Inicio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>D01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>D04</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$P$5:$T$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DE8F-426A-8159-73779378885F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1845646639"/>
+        <c:axId val="2008140767"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1845646639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2008140767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2008140767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1845646639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -293,6 +2438,85 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>730248</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>110066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>687915</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D349D993-9F53-DBAF-99FB-9B740A0CEDCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>730248</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>110066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>687915</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43B0A3AF-3460-4887-9B8E-60FA2C0BA6A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -595,69 +2819,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12886396-CDAF-4037-9656-80B26E0CDA1B}">
-  <dimension ref="B4:L21"/>
+  <dimension ref="B2:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E35" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+    <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P3" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="I4" s="9" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="I4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="O4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="23">
+        <f>45+20+15+30</f>
+        <v>110</v>
+      </c>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="24"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+    <row r="5" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="26">
         <v>0</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17" t="s">
+      <c r="Q5" s="21">
+        <f>20+30+30+60</f>
+        <v>140</v>
+      </c>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="22"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15" t="s">
+      <c r="J6" s="12"/>
+      <c r="K6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="7">
         <v>30</v>
       </c>
       <c r="E7" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="10"/>
       <c r="K7" s="7">
         <v>30</v>
       </c>
@@ -665,21 +2937,21 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="7">
         <v>20</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="10"/>
       <c r="K8" s="7">
         <v>20</v>
       </c>
@@ -687,25 +2959,265 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11">
+      <c r="C10" s="13"/>
+      <c r="D10" s="14">
         <f>D7*E7 + D8*E8</f>
         <v>37.4</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="I10" s="12" t="s">
+      <c r="E10" s="14"/>
+      <c r="I10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="13">
+      <c r="J10" s="15"/>
+      <c r="K10" s="16">
         <f>K7*L7+K8*L8</f>
         <v>71.400000000000006</v>
       </c>
-      <c r="L10" s="12"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{70C572DD-6950-462C-9DC4-62E9BDDFF9BD}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Hoja1!Q4:Q4</xm:f>
+              <xm:sqref>R4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Hoja1!Q5:Q5</xm:f>
+              <xm:sqref>R5</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1538CD56-0247-4FF3-B2B1-3BAFD0549E9D}">
+  <dimension ref="B2:T21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P3" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="I4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="O4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="23">
+        <f>45+20+15+30</f>
+        <v>110</v>
+      </c>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="24"/>
+    </row>
+    <row r="5" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="21">
+        <f>20+30+30+60</f>
+        <v>140</v>
+      </c>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="22"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="7">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="7">
+        <v>30</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="7">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="7">
+        <v>20</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14">
+        <f>D7*E7 + D8*E8</f>
+        <v>37.4</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="I10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16">
+        <f>K7*L7+K8*L8</f>
+        <v>71.400000000000006</v>
+      </c>
+      <c r="L10" s="15"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
@@ -740,20 +3252,45 @@
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="B4:E4"/>
+    <mergeCell ref="I4:L4"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{0376B26D-8886-44A8-809A-C3E816F8A869}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Hoja de Jimmy'!Q4:Q4</xm:f>
+              <xm:sqref>R4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Hoja de Jimmy'!Q5:Q5</xm:f>
+              <xm:sqref>R5</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>